--- a/com.bmwusa/src/test/resources/test_data.xlsx
+++ b/com.bmwusa/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/Selenium Bootcamp/SeleniumBootcamp/com.bmwusa/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA87DCA-697B-1E4F-8852-312DA25A0F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D7610-08F1-FB4E-8D86-F7408FE40A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16220" xr2:uid="{8CFC4508-107C-1348-B842-01F3567ED45F}"/>
   </bookViews>
